--- a/Gantt-Chart-for-Capstone.xlsx
+++ b/Gantt-Chart-for-Capstone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vishal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/venkatavivekthallam/Desktop/College/2020-21 Senior Year/Fall 2020/18500/Falcon-the-Gym-Pro-Assistant-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581E0A2B-08CA-4FC1-ACA9-8ADBB9A813AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F8F4F6-A042-544A-8A36-2DFCFD877A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{277BB413-8A35-0E40-8A86-086B0E207007}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{277BB413-8A35-0E40-8A86-086B0E207007}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     Show's feedback but not synchronized (todo in integration section)</t>
       </text>
     </comment>
-    <comment ref="A51" authorId="1" shapeId="0" xr:uid="{62063088-11A4-43C3-9C2F-58F39C3B6CF7}">
+    <comment ref="A54" authorId="1" shapeId="0" xr:uid="{62063088-11A4-43C3-9C2F-58F39C3B6CF7}">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t xml:space="preserve">Week 1 </t>
   </si>
@@ -352,6 +352,9 @@
   </si>
   <si>
     <t>Switch Profiles (Extra Feature)</t>
+  </si>
+  <si>
+    <t>Spotify Feature</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1250,199 +1253,205 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1451,8 +1460,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF73FDD6"/>
       <color rgb="FFD883FF"/>
-      <color rgb="FF73FDD6"/>
       <color rgb="FFFFD579"/>
       <color rgb="FFC1C1C1"/>
     </mruColors>
@@ -1779,31 +1788,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13842AE8-722F-514C-8F08-42318C75D0F2}">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="10.875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="10.875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="47.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="10.83203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
+    <row r="1" spans="1:40" ht="29" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-    </row>
-    <row r="2" spans="1:40" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+    </row>
+    <row r="2" spans="1:40" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>35</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>77</v>
       </c>
@@ -1909,37 +1918,37 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="57"/>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="120" t="s">
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="119"/>
-    </row>
-    <row r="5" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="125"/>
+      <c r="R4" s="126"/>
+    </row>
+    <row r="5" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1970,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="14"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -1985,7 +1994,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -2009,7 +2018,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
@@ -2033,7 +2042,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>79</v>
       </c>
@@ -2065,189 +2074,189 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:40" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+    <row r="10" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="134" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="126">
+      <c r="B10" s="135">
         <v>1</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="123"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="100"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="83"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="83"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="83"/>
-      <c r="AL10" s="81"/>
-      <c r="AM10" s="83"/>
-      <c r="AN10" s="81"/>
-    </row>
-    <row r="11" spans="1:40" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="127"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="82"/>
-      <c r="AA11" s="82"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="83"/>
-      <c r="AJ11" s="81"/>
-      <c r="AK11" s="83"/>
-      <c r="AL11" s="81"/>
-      <c r="AM11" s="83"/>
-      <c r="AN11" s="81"/>
-    </row>
-    <row r="12" spans="1:40" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="91"/>
+      <c r="T10" s="91"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="91"/>
+      <c r="W10" s="91"/>
+      <c r="X10" s="91"/>
+      <c r="Y10" s="91"/>
+      <c r="Z10" s="91"/>
+      <c r="AA10" s="91"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="90"/>
+      <c r="AE10" s="92"/>
+      <c r="AF10" s="90"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="92"/>
+      <c r="AJ10" s="90"/>
+      <c r="AK10" s="92"/>
+      <c r="AL10" s="90"/>
+      <c r="AM10" s="92"/>
+      <c r="AN10" s="90"/>
+    </row>
+    <row r="11" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="134"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="92"/>
+      <c r="AD11" s="90"/>
+      <c r="AE11" s="92"/>
+      <c r="AF11" s="90"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="92"/>
+      <c r="AJ11" s="90"/>
+      <c r="AK11" s="92"/>
+      <c r="AL11" s="90"/>
+      <c r="AM11" s="92"/>
+      <c r="AN11" s="90"/>
+    </row>
+    <row r="12" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="132">
+      <c r="B12" s="141">
         <v>0.8</v>
       </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="134">
+      <c r="C12" s="132"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="143">
         <v>0.3</v>
       </c>
-      <c r="K12" s="130">
+      <c r="K12" s="139">
         <v>0.65</v>
       </c>
-      <c r="L12" s="128">
+      <c r="L12" s="137">
         <v>0.8</v>
       </c>
-      <c r="M12" s="121"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="100"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="82"/>
-      <c r="Y12" s="82"/>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="81"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="81"/>
-    </row>
-    <row r="13" spans="1:40" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="133"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="82"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="83"/>
-      <c r="AD13" s="81"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="81"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="81"/>
-      <c r="AI13" s="83"/>
-      <c r="AJ13" s="81"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="83"/>
-      <c r="AN13" s="81"/>
-    </row>
-    <row r="14" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="128"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="91"/>
+      <c r="T12" s="91"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+      <c r="Z12" s="91"/>
+      <c r="AA12" s="91"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="92"/>
+      <c r="AD12" s="90"/>
+      <c r="AE12" s="92"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="92"/>
+      <c r="AJ12" s="90"/>
+      <c r="AK12" s="92"/>
+      <c r="AL12" s="90"/>
+      <c r="AM12" s="92"/>
+      <c r="AN12" s="90"/>
+    </row>
+    <row r="13" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="115"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="129"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="96"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="91"/>
+      <c r="Y13" s="91"/>
+      <c r="Z13" s="91"/>
+      <c r="AA13" s="91"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="90"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="90"/>
+      <c r="AK13" s="92"/>
+      <c r="AL13" s="90"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="90"/>
+    </row>
+    <row r="14" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="60"/>
       <c r="C14" s="32"/>
       <c r="D14" s="6"/>
@@ -2266,7 +2275,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
@@ -2291,199 +2300,199 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+    <row r="16" spans="1:40" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="107">
+      <c r="B16" s="116">
         <v>1</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="90" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="118"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="U16" s="83"/>
-      <c r="V16" s="81"/>
-      <c r="W16" s="81"/>
-      <c r="X16" s="81"/>
-      <c r="Y16" s="81"/>
-      <c r="Z16" s="81"/>
-      <c r="AA16" s="81"/>
-    </row>
-    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="99"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="88"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-    </row>
-    <row r="18" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106" t="s">
+      <c r="U16" s="92"/>
+      <c r="V16" s="90"/>
+      <c r="W16" s="90"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="90"/>
+      <c r="AA16" s="90"/>
+    </row>
+    <row r="17" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="94"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="99"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+    </row>
+    <row r="18" spans="1:27" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="107">
+      <c r="B18" s="116">
         <v>1</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="104"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="113"/>
       <c r="L18" s="71"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="93"/>
-      <c r="T18" s="89" t="s">
+      <c r="M18" s="103"/>
+      <c r="N18" s="103"/>
+      <c r="O18" s="93"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="103"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-      <c r="X18" s="82"/>
-      <c r="Y18" s="82"/>
-      <c r="Z18" s="82"/>
-      <c r="AA18" s="82"/>
-    </row>
-    <row r="19" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="105"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="91"/>
+      <c r="W18" s="91"/>
+      <c r="X18" s="91"/>
+      <c r="Y18" s="91"/>
+      <c r="Z18" s="91"/>
+      <c r="AA18" s="91"/>
+    </row>
+    <row r="19" spans="1:27" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="115"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="114"/>
       <c r="L19" s="72"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="99"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="82"/>
-      <c r="Y19" s="82"/>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="82"/>
-    </row>
-    <row r="20" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="106" t="s">
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="91"/>
+      <c r="W19" s="91"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="91"/>
+    </row>
+    <row r="20" spans="1:27" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="109">
-        <v>0</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="100"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="93"/>
-      <c r="T20" s="91" t="s">
+      <c r="B20" s="116">
+        <v>1</v>
+      </c>
+      <c r="C20" s="111"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="103"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="109"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="U20" s="83"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-    </row>
-    <row r="21" spans="1:27" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="103"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="103"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="93"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="83"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U20" s="92"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+    </row>
+    <row r="21" spans="1:27" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="115"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="112"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="112"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="96"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2508,7 +2517,7 @@
       <c r="R22" s="16"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>81</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="R23" s="16"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -2558,7 +2567,7 @@
       <c r="R24" s="16"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2582,7 +2591,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="60"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -2601,7 +2610,7 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="21"/>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2623,7 +2632,7 @@
       <c r="Q27" s="42"/>
       <c r="R27" s="43"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -2647,7 +2656,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -2657,8 +2666,8 @@
       <c r="C29" s="32"/>
       <c r="D29" s="6"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="142"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2671,7 +2680,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -2683,7 +2692,7 @@
       <c r="E30" s="16"/>
       <c r="F30" s="37"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="142"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="27"/>
@@ -2695,7 +2704,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -2708,7 +2717,7 @@
       <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="140"/>
+      <c r="I31" s="82"/>
       <c r="J31" s="8"/>
       <c r="K31" s="27"/>
       <c r="L31" s="15"/>
@@ -2719,7 +2728,7 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -2733,8 +2742,8 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="83"/>
       <c r="L32" s="15"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
@@ -2743,7 +2752,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
@@ -2757,8 +2766,8 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="141"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="83"/>
       <c r="L33" s="15"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -2767,7 +2776,7 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2781,8 +2790,8 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="140"/>
-      <c r="K34" s="149"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="88"/>
       <c r="L34" s="15"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
@@ -2791,7 +2800,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -2806,7 +2815,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="141"/>
+      <c r="K35" s="83"/>
       <c r="L35" s="24"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
@@ -2815,7 +2824,7 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>84</v>
       </c>
@@ -2830,7 +2839,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="141"/>
+      <c r="K36" s="83"/>
       <c r="L36" s="24"/>
       <c r="M36" s="5"/>
       <c r="N36" s="6"/>
@@ -2839,7 +2848,7 @@
       <c r="Q36" s="6"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>87</v>
       </c>
@@ -2854,7 +2863,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="141"/>
+      <c r="K37" s="83"/>
       <c r="L37" s="24"/>
       <c r="M37" s="5"/>
       <c r="N37" s="6"/>
@@ -2863,7 +2872,7 @@
       <c r="Q37" s="6"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>89</v>
       </c>
@@ -2878,16 +2887,16 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
-      <c r="K38" s="141"/>
+      <c r="K38" s="83"/>
       <c r="L38" s="15"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
+      <c r="N38" s="89"/>
       <c r="O38" s="16"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
@@ -2902,7 +2911,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="141"/>
+      <c r="K39" s="83"/>
       <c r="L39" s="15"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
@@ -2911,98 +2920,96 @@
       <c r="Q39" s="6"/>
       <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="62">
-        <v>0.7</v>
-      </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="140"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="60"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="16"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="14"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="59">
+      <c r="B40" s="116">
         <v>1</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="16"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="61"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="109"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="132"/>
+      <c r="M40" s="150"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="111"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="95"/>
+    </row>
+    <row r="41" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="149"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="94"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="96"/>
+    </row>
+    <row r="42" spans="1:18" ht="11" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="116">
+        <v>1</v>
+      </c>
+      <c r="C42" s="111"/>
+      <c r="D42" s="109"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="103"/>
+      <c r="K42" s="93"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="111"/>
+      <c r="Q42" s="109"/>
+      <c r="R42" s="95"/>
+    </row>
+    <row r="43" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="145"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="94"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="106"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="112"/>
+      <c r="Q43" s="110"/>
+      <c r="R43" s="96"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="60"/>
       <c r="C44" s="32"/>
       <c r="D44" s="6"/>
       <c r="E44" s="16"/>
@@ -3011,7 +3018,7 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
-      <c r="K44" s="16"/>
+      <c r="K44" s="27"/>
       <c r="L44" s="15"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
@@ -3020,9 +3027,9 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="16"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B45" s="61"/>
       <c r="C45" s="33"/>
@@ -3042,236 +3049,237 @@
       <c r="Q45" s="9"/>
       <c r="R45" s="14"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="62">
-        <v>0.5</v>
+        <v>59</v>
+      </c>
+      <c r="B46" s="59">
+        <v>1</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="6"/>
       <c r="E46" s="16"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="10"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="16"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="8"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
       <c r="O46" s="16"/>
       <c r="P46" s="15"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="125" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="16"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="61"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="14"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="59">
+        <v>1</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="16"/>
+    </row>
+    <row r="50" spans="1:18" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="126">
+      <c r="B50" s="135">
         <v>1</v>
       </c>
-      <c r="C47" s="123"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="143"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="100"/>
-      <c r="R47" s="86"/>
-    </row>
-    <row r="48" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="125"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="95"/>
-      <c r="N48" s="95"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="87"/>
-    </row>
-    <row r="49" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="106" t="s">
+      <c r="C50" s="132"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
+      <c r="J50" s="109"/>
+      <c r="K50" s="130"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="109"/>
+      <c r="R50" s="95"/>
+    </row>
+    <row r="51" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="134"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="96"/>
+      <c r="F51" s="112"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="131"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="104"/>
+      <c r="N51" s="104"/>
+      <c r="O51" s="96"/>
+      <c r="P51" s="112"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="96"/>
+    </row>
+    <row r="52" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="107">
+      <c r="B52" s="116">
         <v>1</v>
       </c>
-      <c r="C49" s="123"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="100"/>
-      <c r="R49" s="86"/>
-    </row>
-    <row r="50" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="106"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="101"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="101"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="87"/>
-    </row>
-    <row r="51" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="138" t="s">
+      <c r="C52" s="132"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="95"/>
+    </row>
+    <row r="53" spans="1:18" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="115"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="133"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="96"/>
+      <c r="L53" s="112"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="96"/>
+      <c r="P53" s="112"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="96"/>
+    </row>
+    <row r="54" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="132">
-        <v>0.8</v>
-      </c>
-      <c r="C51" s="136"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="102"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="143"/>
-      <c r="P51" s="148"/>
-      <c r="Q51" s="148"/>
-      <c r="R51" s="148"/>
-    </row>
-    <row r="52" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
-      <c r="B52" s="135"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
-      <c r="J52" s="101"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="144"/>
-      <c r="P52" s="148"/>
-      <c r="Q52" s="148"/>
-      <c r="R52" s="148"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B54" s="116">
+        <v>1</v>
+      </c>
+      <c r="C54" s="146"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="95"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="130"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="144"/>
+      <c r="R54" s="144"/>
+    </row>
+    <row r="55" spans="1:18" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="145"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="144"/>
+      <c r="Q55" s="144"/>
+      <c r="R55" s="144"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="62">
+      <c r="B56" s="62">
         <v>0.5</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="147"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="60"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="9"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="14"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="59">
-        <v>1</v>
-      </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="16"/>
       <c r="F56" s="15"/>
       <c r="G56" s="6"/>
@@ -3282,23 +3290,16 @@
       <c r="L56" s="15"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="15"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="10"/>
       <c r="Q56" s="6"/>
-      <c r="R56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="59">
-        <v>1</v>
-      </c>
+      <c r="R56" s="6"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="60"/>
       <c r="C57" s="32"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="18" t="s">
-        <v>42</v>
-      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="16"/>
       <c r="F57" s="15"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3313,48 +3314,42 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="16"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="59">
-        <v>1</v>
-      </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="16"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="61"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="14"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B59" s="59">
         <v>1</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="6"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="16"/>
       <c r="F59" s="15"/>
       <c r="G59" s="6"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
       <c r="J59" s="6"/>
       <c r="K59" s="16"/>
       <c r="L59" s="15"/>
@@ -3365,23 +3360,23 @@
       <c r="Q59" s="6"/>
       <c r="R59" s="16"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B60" s="59">
         <v>1</v>
       </c>
       <c r="C60" s="32"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="16"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="F60" s="15"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="16"/>
       <c r="L60" s="15"/>
       <c r="M60" s="6"/>
@@ -3391,35 +3386,35 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="16"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B61" s="59">
         <v>1</v>
       </c>
       <c r="C61" s="32"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="15"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="17" t="s">
+        <v>42</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="16"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="L61" s="15"/>
+      <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="16"/>
       <c r="P61" s="15"/>
       <c r="Q61" s="6"/>
       <c r="R61" s="16"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B62" s="59">
         <v>1</v>
@@ -3429,26 +3424,26 @@
       <c r="E62" s="16"/>
       <c r="F62" s="15"/>
       <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="J62" s="6"/>
       <c r="K62" s="16"/>
       <c r="L62" s="15"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="O62" s="16"/>
+      <c r="P62" s="15"/>
       <c r="Q62" s="6"/>
       <c r="R62" s="16"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63" s="63">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B63" s="59">
+        <v>1</v>
       </c>
       <c r="C63" s="32"/>
       <c r="D63" s="6"/>
@@ -3456,63 +3451,174 @@
       <c r="F63" s="15"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="K63" s="16"/>
       <c r="L63" s="15"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="16"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="10" t="s">
+      <c r="P63" s="15"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="16"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="59">
+        <v>1</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="R63" s="16"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="N64" s="6"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="16"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="59">
+        <v>1</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="16"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="59">
+        <v>1</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R66" s="16"/>
+    </row>
+    <row r="67" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B64" s="70">
+      <c r="B67" s="70">
         <v>0</v>
       </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="29" t="s">
+      <c r="C67" s="36"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="29" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="214">
-    <mergeCell ref="O51:O52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="Q51:Q52"/>
-    <mergeCell ref="R51:R52"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="L51:L52"/>
+  <mergeCells count="247">
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="P40:P41"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="P54:P55"/>
+    <mergeCell ref="Q54:Q55"/>
+    <mergeCell ref="R54:R55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -3546,39 +3652,39 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="P49:P50"/>
-    <mergeCell ref="Q49:Q50"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="O47:O48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="N47:N48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="P52:P53"/>
+    <mergeCell ref="Q52:Q53"/>
+    <mergeCell ref="R52:R53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="N50:N51"/>
     <mergeCell ref="AM10:AM11"/>
     <mergeCell ref="AN10:AN11"/>
     <mergeCell ref="AC10:AC11"/>
